--- a/config/string_config.xlsx
+++ b/config/string_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bin/Documents/JoyCastle/claudeCode/solitaire-tile-bingo/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0C8187-3A69-2E46-8B01-CAAEFFF41B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3359C9C0-CD02-174E-B00E-38CE62847162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="4320" windowWidth="25440" windowHeight="13940" xr2:uid="{515064CD-50D1-F94A-A5CC-CC4734FE40F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1491">
   <si>
     <t>id</t>
   </si>
@@ -4504,6 +4504,10 @@
   </si>
   <si>
     <t>Landmass</t>
+  </si>
+  <si>
+    <t>Wardrobe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4888,8 +4892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F719E73-D7BB-CA44-A0DE-4D5D8169EFF3}">
   <dimension ref="A1:C778"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
+      <selection activeCell="C734" sqref="C734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11458,7 +11462,7 @@
       </c>
       <c r="B729" s="1"/>
       <c r="C729" s="1" t="s">
-        <v>210</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="730" spans="1:3">

--- a/config/string_config.xlsx
+++ b/config/string_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12820"/>
+    <workbookView windowWidth="28000" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="2500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="2515">
   <si>
     <t>id</t>
   </si>
@@ -7527,6 +7527,51 @@
   </si>
   <si>
     <t>Halloween</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_TV</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_ATM</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_E_READER</t>
+  </si>
+  <si>
+    <t>E-reader</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_BUZZER</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_BEEP</t>
+  </si>
+  <si>
+    <t>Beep</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_BASIC_WORD_RUSH</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_CATEGORY_WORD_SCREEN</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_CATEGORY_WORD_ALARM</t>
+  </si>
+  <si>
+    <t>Alarm</t>
   </si>
 </sst>
 </file>
@@ -8190,7 +8235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8207,6 +8252,12 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -8528,10 +8579,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1276"/>
+  <dimension ref="A1:C1284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1253" workbookViewId="0">
-      <selection activeCell="A1276" sqref="A1276"/>
+    <sheetView tabSelected="1" topLeftCell="A1262" workbookViewId="0">
+      <selection activeCell="C1277" sqref="C1277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -20026,6 +20077,78 @@
         <v>2499</v>
       </c>
     </row>
+    <row r="1277" ht="18.35" spans="1:3">
+      <c r="A1277" s="6" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B1277" s="7"/>
+      <c r="C1277" s="6" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="1278" ht="18.35" spans="1:3">
+      <c r="A1278" s="6" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B1278" s="7"/>
+      <c r="C1278" s="6" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="1279" ht="18.35" spans="1:3">
+      <c r="A1279" s="6" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B1279" s="7"/>
+      <c r="C1279" s="6" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="1280" ht="18.35" spans="1:3">
+      <c r="A1280" s="6" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1280" s="7"/>
+      <c r="C1280" s="6" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="1281" ht="18.35" spans="1:3">
+      <c r="A1281" s="6" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B1281" s="7"/>
+      <c r="C1281" s="6" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="1282" ht="18.35" spans="1:3">
+      <c r="A1282" s="6" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B1282" s="7"/>
+      <c r="C1282" s="6" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="1283" ht="18.35" spans="1:3">
+      <c r="A1283" s="6" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B1283" s="7"/>
+      <c r="C1283" s="6" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="1284" ht="18.35" spans="1:3">
+      <c r="A1284" s="6" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B1284" s="7"/>
+      <c r="C1284" s="6" t="s">
+        <v>2514</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
